--- a/ANALISIS CAMPOS INDIVIDUALES/ACTIVIDAD_AMENAZAS.xlsx
+++ b/ANALISIS CAMPOS INDIVIDUALES/ACTIVIDAD_AMENAZAS.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\U355032\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\Python 3.9\TFM\IBM\THREAT ACTIVITY GROUP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C3CAB79-1730-4DEB-A01D-71C6AA64490A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{424628D5-63E7-416C-8580-DD06B3804C9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="780" yWindow="780" windowWidth="12300" windowHeight="9795" firstSheet="2" activeTab="5" xr2:uid="{B7C1EBBC-126A-47B9-81B9-2626FEAA629A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{B7C1EBBC-126A-47B9-81B9-2626FEAA629A}"/>
   </bookViews>
   <sheets>
-    <sheet name="AÑO CREACIÓN" sheetId="2" r:id="rId1"/>
-    <sheet name="AÑO PUBLICACIÓN" sheetId="3" r:id="rId2"/>
-    <sheet name="AÑO MODIFICACIÓN" sheetId="5" r:id="rId3"/>
-    <sheet name="TIPO DE OBJETO STIX 2.1 " sheetId="6" r:id="rId4"/>
-    <sheet name="OBJETOS DE REFERENCIA" sheetId="7" r:id="rId5"/>
-    <sheet name="NAME" sheetId="9" r:id="rId6"/>
+    <sheet name="created" sheetId="2" r:id="rId1"/>
+    <sheet name="published" sheetId="3" r:id="rId2"/>
+    <sheet name="modified" sheetId="5" r:id="rId3"/>
+    <sheet name="type" sheetId="6" r:id="rId4"/>
+    <sheet name="object_refs" sheetId="7" r:id="rId5"/>
+    <sheet name="name" sheetId="9" r:id="rId6"/>
     <sheet name="Hoja1" sheetId="1" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -1744,7 +1744,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'AÑO CREACIÓN'!$B$12:$B$15</c:f>
+              <c:f>created!$B$12:$B$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1765,7 +1765,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'AÑO CREACIÓN'!$D$12:$D$15</c:f>
+              <c:f>created!$D$12:$D$15</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1825,7 +1825,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'AÑO CREACIÓN'!$B$12:$B$15</c15:sqref>
+                          <c15:sqref>created!$B$12:$B$15</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1852,7 +1852,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'AÑO CREACIÓN'!$C$12:$C$14</c15:sqref>
+                          <c15:sqref>created!$C$12:$C$14</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2205,7 +2205,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'TIPO DE OBJETO STIX 2.1 '!$B$12:$B$14</c:f>
+              <c:f>type!$B$12:$B$14</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -2222,7 +2222,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'TIPO DE OBJETO STIX 2.1 '!$D$12:$D$14</c:f>
+              <c:f>type!$D$12:$D$14</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2279,7 +2279,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'TIPO DE OBJETO STIX 2.1 '!$B$12:$B$14</c15:sqref>
+                          <c15:sqref>type!$B$12:$B$14</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2302,7 +2302,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'TIPO DE OBJETO STIX 2.1 '!$C$12:$C$14</c15:sqref>
+                          <c15:sqref>type!$C$12:$C$14</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2655,7 +2655,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'TIPO DE OBJETO STIX 2.1 '!$G$12:$G$14</c:f>
+              <c:f>type!$G$12:$G$14</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -2672,7 +2672,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'TIPO DE OBJETO STIX 2.1 '!$I$12:$I$14</c:f>
+              <c:f>type!$I$12:$I$14</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2729,7 +2729,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'TIPO DE OBJETO STIX 2.1 '!$G$12:$G$14</c15:sqref>
+                          <c15:sqref>type!$G$12:$G$14</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2752,7 +2752,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'TIPO DE OBJETO STIX 2.1 '!$H$12:$H$14</c15:sqref>
+                          <c15:sqref>type!$H$12:$H$14</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -3105,7 +3105,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'TIPO DE OBJETO STIX 2.1 '!$B$65:$B$67</c:f>
+              <c:f>type!$B$65:$B$67</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -3122,7 +3122,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'TIPO DE OBJETO STIX 2.1 '!$D$65:$D$67</c:f>
+              <c:f>type!$D$65:$D$67</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="3"/>
@@ -3179,7 +3179,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'TIPO DE OBJETO STIX 2.1 '!$B$65:$B$67</c15:sqref>
+                          <c15:sqref>type!$B$65:$B$67</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -3202,7 +3202,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'TIPO DE OBJETO STIX 2.1 '!$C$65:$C$67</c15:sqref>
+                          <c15:sqref>type!$C$65:$C$67</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -3664,7 +3664,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'OBJETOS DE REFERENCIA'!$B$12:$B$13</c:f>
+              <c:f>object_refs!$B$12:$B$13</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -3678,7 +3678,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'OBJETOS DE REFERENCIA'!$C$12:$C$13</c:f>
+              <c:f>object_refs!$C$12:$C$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -4056,7 +4056,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'OBJETOS DE REFERENCIA'!$G$12:$G$13</c:f>
+              <c:f>object_refs!$G$12:$G$13</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -4070,7 +4070,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'OBJETOS DE REFERENCIA'!$H$12:$H$13</c:f>
+              <c:f>object_refs!$H$12:$H$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -4219,7 +4219,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'OBJETOS DE REFERENCIA'!$G$12:$G$13</c:f>
+              <c:f>object_refs!$G$12:$G$13</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -4233,7 +4233,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'OBJETOS DE REFERENCIA'!$I$12:$I$13</c:f>
+              <c:f>object_refs!$I$12:$I$13</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="2"/>
@@ -4611,7 +4611,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'OBJETOS DE REFERENCIA'!$B$64:$B$65</c:f>
+              <c:f>object_refs!$B$64:$B$65</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -4625,7 +4625,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'OBJETOS DE REFERENCIA'!$C$64:$C$65</c:f>
+              <c:f>object_refs!$C$64:$C$65</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -4900,11 +4900,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>NAME!$B$12:$B$42</c15:sqref>
+                    <c15:sqref>name!$B$12:$B$42</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(NAME!$B$12:$B$17,NAME!$B$40:$B$42)</c:f>
+              <c:f>(name!$B$12:$B$17,name!$B$40:$B$42)</c:f>
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
@@ -4942,11 +4942,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>NAME!$D$12:$D$42</c15:sqref>
+                    <c15:sqref>name!$D$12:$D$42</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(NAME!$D$12:$D$17,NAME!$D$40:$D$42)</c:f>
+              <c:f>(name!$D$12:$D$17,name!$D$40:$D$42)</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="9"/>
@@ -5021,10 +5021,10 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>NAME!$B$12:$B$42</c15:sqref>
+                          <c15:sqref>name!$B$12:$B$42</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>(NAME!$B$12:$B$17,NAME!$B$40:$B$42)</c15:sqref>
+                          <c15:sqref>(name!$B$12:$B$17,name!$B$40:$B$42)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -5065,10 +5065,10 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>NAME!$C$12:$C$42</c15:sqref>
+                          <c15:sqref>name!$C$12:$C$42</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>(NAME!$C$12:$C$17,NAME!$C$40:$C$42)</c15:sqref>
+                          <c15:sqref>(name!$C$12:$C$17,name!$C$40:$C$42)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -5415,11 +5415,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>NAME!$F$12:$F$37</c15:sqref>
+                    <c15:sqref>name!$F$12:$F$37</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(NAME!$F$12:$F$20,NAME!$F$35)</c:f>
+              <c:f>(name!$F$12:$F$20,name!$F$35)</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -5460,11 +5460,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>NAME!$H$12:$H$37</c15:sqref>
+                    <c15:sqref>name!$H$12:$H$37</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(NAME!$H$12:$H$20,NAME!$H$35)</c:f>
+              <c:f>(name!$H$12:$H$20,name!$H$35)</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="10"/>
@@ -5542,10 +5542,10 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>NAME!$F$12:$F$37</c15:sqref>
+                          <c15:sqref>name!$F$12:$F$37</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>(NAME!$F$12:$F$20,NAME!$F$35)</c15:sqref>
+                          <c15:sqref>(name!$F$12:$F$20,name!$F$35)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -5589,10 +5589,10 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>NAME!$G$12:$G$37</c15:sqref>
+                          <c15:sqref>name!$G$12:$G$37</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>(NAME!$G$12:$G$20,NAME!$G$35)</c15:sqref>
+                          <c15:sqref>(name!$G$12:$G$20,name!$G$35)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -5975,11 +5975,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>NAME!$B$91:$B$123</c15:sqref>
+                    <c15:sqref>name!$B$91:$B$123</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(NAME!$B$91:$B$96,NAME!$B$121)</c:f>
+              <c:f>(name!$B$91:$B$96,name!$B$121)</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -6011,11 +6011,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>NAME!$D$91:$D$123</c15:sqref>
+                    <c15:sqref>name!$D$91:$D$123</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(NAME!$D$91:$D$96,NAME!$D$121)</c:f>
+              <c:f>(name!$D$91:$D$96,name!$D$121)</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="7"/>
@@ -6084,10 +6084,10 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>NAME!$B$91:$B$123</c15:sqref>
+                          <c15:sqref>name!$B$91:$B$123</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>(NAME!$B$91:$B$96,NAME!$B$121)</c15:sqref>
+                          <c15:sqref>(name!$B$91:$B$96,name!$B$121)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -6122,10 +6122,10 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>NAME!$C$91:$C$123</c15:sqref>
+                          <c15:sqref>name!$C$91:$C$123</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>(NAME!$C$91:$C$96,NAME!$C$121)</c15:sqref>
+                          <c15:sqref>(name!$C$91:$C$96,name!$C$121)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -6601,7 +6601,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>NAME!$B$41:$B$42</c:f>
+              <c:f>name!$B$41:$B$42</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -6615,7 +6615,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>NAME!$C$41:$C$42</c:f>
+              <c:f>name!$C$41:$C$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -6887,7 +6887,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'AÑO CREACIÓN'!$F$12:$F$15</c:f>
+              <c:f>created!$F$12:$F$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -6908,7 +6908,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'AÑO CREACIÓN'!$H$12:$H$15</c:f>
+              <c:f>created!$H$12:$H$15</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
@@ -6968,7 +6968,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'AÑO CREACIÓN'!$F$12:$F$15</c15:sqref>
+                          <c15:sqref>created!$F$12:$F$15</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -6995,7 +6995,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'AÑO CREACIÓN'!$G$12:$G$14</c15:sqref>
+                          <c15:sqref>created!$G$12:$G$14</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -7448,7 +7448,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>NAME!$F$36:$F$37</c:f>
+              <c:f>name!$F$36:$F$37</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -7462,7 +7462,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>NAME!$G$36:$G$37</c:f>
+              <c:f>name!$G$36:$G$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -7842,7 +7842,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>NAME!$B$122:$B$123</c:f>
+              <c:f>name!$B$122:$B$123</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -7856,7 +7856,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>NAME!$C$122:$C$123</c:f>
+              <c:f>name!$C$122:$C$123</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -8192,7 +8192,7 @@
           </c:dPt>
           <c:cat>
             <c:numRef>
-              <c:f>'AÑO CREACIÓN'!$B$66:$B$69</c:f>
+              <c:f>created!$B$66:$B$69</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -8213,7 +8213,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'AÑO CREACIÓN'!$D$66:$D$69</c:f>
+              <c:f>created!$D$66:$D$69</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
@@ -8273,7 +8273,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'AÑO CREACIÓN'!$B$66:$B$69</c15:sqref>
+                          <c15:sqref>created!$B$66:$B$69</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -8300,7 +8300,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'AÑO CREACIÓN'!$C$66:$C$68</c15:sqref>
+                          <c15:sqref>created!$C$66:$C$68</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -8621,7 +8621,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'AÑO PUBLICACIÓN'!$B$12:$B$15</c:f>
+              <c:f>published!$B$12:$B$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -8642,7 +8642,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'AÑO PUBLICACIÓN'!$D$12:$D$15</c:f>
+              <c:f>published!$D$12:$D$15</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
@@ -8702,7 +8702,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'AÑO PUBLICACIÓN'!$B$12:$B$15</c15:sqref>
+                          <c15:sqref>published!$B$12:$B$15</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -8729,7 +8729,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'AÑO PUBLICACIÓN'!$C$12:$C$14</c15:sqref>
+                          <c15:sqref>published!$C$12:$C$14</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -9085,7 +9085,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'AÑO PUBLICACIÓN'!$F$12:$F$15</c:f>
+              <c:f>published!$F$12:$F$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -9106,7 +9106,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'AÑO PUBLICACIÓN'!$H$12:$H$15</c:f>
+              <c:f>published!$H$12:$H$15</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
@@ -9166,7 +9166,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'AÑO PUBLICACIÓN'!$F$12:$F$15</c15:sqref>
+                          <c15:sqref>published!$F$12:$F$15</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -9193,7 +9193,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'AÑO PUBLICACIÓN'!$G$12:$G$14</c15:sqref>
+                          <c15:sqref>published!$G$12:$G$14</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -9611,7 +9611,7 @@
           </c:dPt>
           <c:cat>
             <c:numRef>
-              <c:f>'AÑO PUBLICACIÓN'!$B$66:$B$69</c:f>
+              <c:f>published!$B$66:$B$69</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -9632,7 +9632,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'AÑO PUBLICACIÓN'!$D$66:$D$69</c:f>
+              <c:f>published!$D$66:$D$69</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
@@ -9692,7 +9692,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'AÑO PUBLICACIÓN'!$B$66:$B$69</c15:sqref>
+                          <c15:sqref>published!$B$66:$B$69</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -9719,7 +9719,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'AÑO PUBLICACIÓN'!$C$66:$C$68</c15:sqref>
+                          <c15:sqref>published!$C$66:$C$68</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -10037,7 +10037,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'AÑO MODIFICACIÓN'!$B$12:$B$15</c:f>
+              <c:f>modified!$B$12:$B$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -10058,7 +10058,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'AÑO MODIFICACIÓN'!$D$12:$D$15</c:f>
+              <c:f>modified!$D$12:$D$15</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
@@ -10118,7 +10118,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'AÑO MODIFICACIÓN'!$B$12:$B$15</c15:sqref>
+                          <c15:sqref>modified!$B$12:$B$15</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -10145,7 +10145,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'AÑO MODIFICACIÓN'!$C$12:$C$14</c15:sqref>
+                          <c15:sqref>modified!$C$12:$C$14</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -10503,7 +10503,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'AÑO MODIFICACIÓN'!$F$12:$F$15</c:f>
+              <c:f>modified!$F$12:$F$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -10524,7 +10524,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'AÑO MODIFICACIÓN'!$H$12:$H$15</c:f>
+              <c:f>modified!$H$12:$H$15</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
@@ -10584,7 +10584,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'AÑO MODIFICACIÓN'!$F$12:$F$15</c15:sqref>
+                          <c15:sqref>modified!$F$12:$F$15</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -10611,7 +10611,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'AÑO MODIFICACIÓN'!$G$12:$G$14</c15:sqref>
+                          <c15:sqref>modified!$G$12:$G$14</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -11024,7 +11024,7 @@
           </c:dPt>
           <c:cat>
             <c:numRef>
-              <c:f>'AÑO MODIFICACIÓN'!$B$66:$B$69</c:f>
+              <c:f>modified!$B$66:$B$69</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -11045,7 +11045,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'AÑO MODIFICACIÓN'!$D$66:$D$69</c:f>
+              <c:f>modified!$D$66:$D$69</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
@@ -11105,7 +11105,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'AÑO MODIFICACIÓN'!$B$66:$B$69</c15:sqref>
+                          <c15:sqref>modified!$B$66:$B$69</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -11132,7 +11132,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'AÑO MODIFICACIÓN'!$C$66:$C$68</c15:sqref>
+                          <c15:sqref>modified!$C$66:$C$68</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -24879,7 +24879,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A8A3E95-7BE0-4BFE-AEBC-398524A6E1B8}">
   <dimension ref="B2:I70"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
@@ -25687,7 +25687,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B39ED30A-61A3-49D5-BF04-1E2E043925A5}">
   <dimension ref="B2:J66"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -26054,7 +26054,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D88C2DC-6CB6-4FFA-81AB-6B7428D0E064}">
   <dimension ref="B2:I124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
